--- a/Finance Database.xlsx
+++ b/Finance Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91904\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CF524B-8F21-478D-8E2F-FC8253C6EF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033124B8-5F49-4FED-9002-AEB679ADF15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0B83F7F0-C47D-4FB4-A660-89FA22E28BDE}"/>
   </bookViews>
@@ -202,7 +202,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$₹-439]#,##0"/>
+    <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -242,122 +242,122 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="38">
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$₹-439]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$₹-439]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$₹-439]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$₹-439]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$₹-439]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$₹-439]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$₹-439]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$₹-439]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$₹-439]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$₹-439]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$₹-439]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$₹-439]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$₹-439]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$₹-439]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$₹-439]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$₹-439]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$₹-439]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$₹-439]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$₹-439]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$₹-439]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$₹-439]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$₹-439]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$₹-439]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$₹-439]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$₹-439]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$₹-439]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$₹-439]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$₹-439]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$₹-439]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$₹-439]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$₹-439]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$₹-439]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$₹-439]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$₹-439]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$₹-439]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$₹-439]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$₹-439]#,##0"/>
+      <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="22" formatCode="mmm\-yy"/>
@@ -383,43 +383,43 @@
   <tableColumns count="39">
     <tableColumn id="1" xr3:uid="{58A01EA0-A8C1-4C29-A5B2-F93301FAB79F}" name="Type"/>
     <tableColumn id="2" xr3:uid="{6494A8AB-3CB8-43CB-833A-6AAC6512DD30}" name="Component"/>
-    <tableColumn id="3" xr3:uid="{F0927546-DCCD-45F0-AF41-EF513053CFA2}" name="Jan-22" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{914B7454-985E-4978-916D-F5BC1006E147}" name="Feb-22" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{594CE7D1-6846-4F3F-B3AB-2C7FDF2AE8A2}" name="Mar-22" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{DDB6FFBD-B05A-48C1-8DBC-3C1271F05B7C}" name="Apr-22" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{AF6A4F01-4F2E-4814-9E4B-C0E21C8FFC87}" name="May-22" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{F33BF97F-89EA-46D1-884A-FB554EA77E6D}" name="Jun-22" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{6E6C8283-8082-43AE-B135-3546075DB3E7}" name="Jul-22" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{498C5B3E-2E64-4E07-A53B-1A6C4CE0427E}" name="Aug-22" dataDxfId="29"/>
-    <tableColumn id="11" xr3:uid="{61B706F2-624E-4056-ACD5-884C06005960}" name="Sep-22" dataDxfId="28"/>
-    <tableColumn id="12" xr3:uid="{02C9B866-4304-45FE-9DCA-8765E9AB9A35}" name="Oct-22" dataDxfId="27"/>
-    <tableColumn id="13" xr3:uid="{6EE18CE6-6B84-44A7-8FC7-41A5621D685A}" name="Nov-22" dataDxfId="26"/>
-    <tableColumn id="14" xr3:uid="{C5F208DC-2427-4718-83EE-B3267305E4F3}" name="Dec-22" dataDxfId="25"/>
-    <tableColumn id="15" xr3:uid="{D1895654-75EA-4216-820D-E87C0DA6AA04}" name="Jan-23" dataDxfId="24"/>
-    <tableColumn id="16" xr3:uid="{4C2B46C6-2EF3-48C2-AC18-D751B3E5AFCE}" name="Feb-23" dataDxfId="23"/>
-    <tableColumn id="17" xr3:uid="{FDA0FC9E-A8CA-48F4-813D-C17284AADD0D}" name="Mar-23" dataDxfId="22"/>
-    <tableColumn id="18" xr3:uid="{3031A520-4BF4-418D-9DD2-5E33FB45AC70}" name="Apr-23" dataDxfId="21"/>
-    <tableColumn id="19" xr3:uid="{29424DFC-667B-49D6-8144-44A969BF425B}" name="May-23" dataDxfId="20"/>
-    <tableColumn id="20" xr3:uid="{8B254265-1EF5-458B-92E7-1E8E3B1584E2}" name="Jun-23" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{F0927546-DCCD-45F0-AF41-EF513053CFA2}" name="Jan-22" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{914B7454-985E-4978-916D-F5BC1006E147}" name="Feb-22" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{594CE7D1-6846-4F3F-B3AB-2C7FDF2AE8A2}" name="Mar-22" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{DDB6FFBD-B05A-48C1-8DBC-3C1271F05B7C}" name="Apr-22" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{AF6A4F01-4F2E-4814-9E4B-C0E21C8FFC87}" name="May-22" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{F33BF97F-89EA-46D1-884A-FB554EA77E6D}" name="Jun-22" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{6E6C8283-8082-43AE-B135-3546075DB3E7}" name="Jul-22" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{498C5B3E-2E64-4E07-A53B-1A6C4CE0427E}" name="Aug-22" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{61B706F2-624E-4056-ACD5-884C06005960}" name="Sep-22" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{02C9B866-4304-45FE-9DCA-8765E9AB9A35}" name="Oct-22" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{6EE18CE6-6B84-44A7-8FC7-41A5621D685A}" name="Nov-22" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{C5F208DC-2427-4718-83EE-B3267305E4F3}" name="Dec-22" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{D1895654-75EA-4216-820D-E87C0DA6AA04}" name="Jan-23" dataDxfId="12"/>
+    <tableColumn id="16" xr3:uid="{4C2B46C6-2EF3-48C2-AC18-D751B3E5AFCE}" name="Feb-23" dataDxfId="13"/>
+    <tableColumn id="17" xr3:uid="{FDA0FC9E-A8CA-48F4-813D-C17284AADD0D}" name="Mar-23" dataDxfId="14"/>
+    <tableColumn id="18" xr3:uid="{3031A520-4BF4-418D-9DD2-5E33FB45AC70}" name="Apr-23" dataDxfId="15"/>
+    <tableColumn id="19" xr3:uid="{29424DFC-667B-49D6-8144-44A969BF425B}" name="May-23" dataDxfId="16"/>
+    <tableColumn id="20" xr3:uid="{8B254265-1EF5-458B-92E7-1E8E3B1584E2}" name="Jun-23" dataDxfId="17"/>
     <tableColumn id="21" xr3:uid="{071B2D6C-FBE4-4251-B748-7A679AB9D9A9}" name="Jul-23" dataDxfId="18"/>
-    <tableColumn id="22" xr3:uid="{BF4DF9CE-05DC-4595-A29C-8DDF3939490A}" name="Aug-23" dataDxfId="17"/>
-    <tableColumn id="23" xr3:uid="{3E8CF78D-8F1B-47FB-B83D-E5ED3121AD57}" name="Sep-23" dataDxfId="16"/>
-    <tableColumn id="24" xr3:uid="{B7BD3E61-0AFD-4B03-8BE2-41E9083B3131}" name="Oct-23" dataDxfId="15"/>
-    <tableColumn id="25" xr3:uid="{1A1282FE-65E1-4221-8AE6-6535E128A630}" name="Nov-23" dataDxfId="14"/>
-    <tableColumn id="26" xr3:uid="{542CAE13-13CE-4C18-B8DC-7DCFDF075929}" name="Dec-23" dataDxfId="13"/>
-    <tableColumn id="27" xr3:uid="{E47705F6-8FC7-4A5B-A298-6476891C6CC7}" name="Jan-24" dataDxfId="12"/>
-    <tableColumn id="28" xr3:uid="{18642D5F-9447-495F-AA2B-91F13F49B122}" name="Feb-24" dataDxfId="11"/>
-    <tableColumn id="29" xr3:uid="{A78CB447-0F65-433B-B507-784252E9A0E0}" name="Mar-24" dataDxfId="10"/>
-    <tableColumn id="30" xr3:uid="{BE371DF2-081B-42E7-BC8A-0A09435C7A82}" name="Apr-24" dataDxfId="9"/>
-    <tableColumn id="31" xr3:uid="{FC65F0D9-A1B6-4E01-83EF-E193157D0148}" name="May-24" dataDxfId="8"/>
-    <tableColumn id="32" xr3:uid="{653FFF4B-85BE-40B3-B627-940D71034233}" name="Jun-24" dataDxfId="7"/>
-    <tableColumn id="33" xr3:uid="{641EF8E5-8936-4C10-902D-D695ED241482}" name="Jul-24" dataDxfId="6"/>
-    <tableColumn id="34" xr3:uid="{4942A3DF-9EFB-47E3-A4B9-F57A92C28A37}" name="Aug-24" dataDxfId="5"/>
-    <tableColumn id="35" xr3:uid="{E3BC1D43-C40A-40DA-AFF1-33CE011B289B}" name="Sep-24" dataDxfId="4"/>
-    <tableColumn id="36" xr3:uid="{292B90B2-7C98-41D3-BF37-CACCEB14E21F}" name="Oct-24" dataDxfId="3"/>
-    <tableColumn id="37" xr3:uid="{1704D538-C1B7-4947-948C-7A13530D3681}" name="Nov-24" dataDxfId="2"/>
-    <tableColumn id="38" xr3:uid="{24BE9F98-7F82-4BB2-B272-B7E18B379A5A}" name="Dec-24" dataDxfId="1"/>
-    <tableColumn id="39" xr3:uid="{96A58E68-6990-4D29-9F17-6365BC81B00C}" name="Jan-25" dataDxfId="0"/>
+    <tableColumn id="22" xr3:uid="{BF4DF9CE-05DC-4595-A29C-8DDF3939490A}" name="Aug-23" dataDxfId="19"/>
+    <tableColumn id="23" xr3:uid="{3E8CF78D-8F1B-47FB-B83D-E5ED3121AD57}" name="Sep-23" dataDxfId="20"/>
+    <tableColumn id="24" xr3:uid="{B7BD3E61-0AFD-4B03-8BE2-41E9083B3131}" name="Oct-23" dataDxfId="21"/>
+    <tableColumn id="25" xr3:uid="{1A1282FE-65E1-4221-8AE6-6535E128A630}" name="Nov-23" dataDxfId="22"/>
+    <tableColumn id="26" xr3:uid="{542CAE13-13CE-4C18-B8DC-7DCFDF075929}" name="Dec-23" dataDxfId="23"/>
+    <tableColumn id="27" xr3:uid="{E47705F6-8FC7-4A5B-A298-6476891C6CC7}" name="Jan-24" dataDxfId="24"/>
+    <tableColumn id="28" xr3:uid="{18642D5F-9447-495F-AA2B-91F13F49B122}" name="Feb-24" dataDxfId="25"/>
+    <tableColumn id="29" xr3:uid="{A78CB447-0F65-433B-B507-784252E9A0E0}" name="Mar-24" dataDxfId="26"/>
+    <tableColumn id="30" xr3:uid="{BE371DF2-081B-42E7-BC8A-0A09435C7A82}" name="Apr-24" dataDxfId="27"/>
+    <tableColumn id="31" xr3:uid="{FC65F0D9-A1B6-4E01-83EF-E193157D0148}" name="May-24" dataDxfId="28"/>
+    <tableColumn id="32" xr3:uid="{653FFF4B-85BE-40B3-B627-940D71034233}" name="Jun-24" dataDxfId="29"/>
+    <tableColumn id="33" xr3:uid="{641EF8E5-8936-4C10-902D-D695ED241482}" name="Jul-24" dataDxfId="30"/>
+    <tableColumn id="34" xr3:uid="{4942A3DF-9EFB-47E3-A4B9-F57A92C28A37}" name="Aug-24" dataDxfId="31"/>
+    <tableColumn id="35" xr3:uid="{E3BC1D43-C40A-40DA-AFF1-33CE011B289B}" name="Sep-24" dataDxfId="32"/>
+    <tableColumn id="36" xr3:uid="{292B90B2-7C98-41D3-BF37-CACCEB14E21F}" name="Oct-24" dataDxfId="33"/>
+    <tableColumn id="37" xr3:uid="{1704D538-C1B7-4947-948C-7A13530D3681}" name="Nov-24" dataDxfId="34"/>
+    <tableColumn id="38" xr3:uid="{24BE9F98-7F82-4BB2-B272-B7E18B379A5A}" name="Dec-24" dataDxfId="35"/>
+    <tableColumn id="39" xr3:uid="{96A58E68-6990-4D29-9F17-6365BC81B00C}" name="Jan-25" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -725,7 +725,7 @@
   <dimension ref="A2:AT14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -733,7 +733,7 @@
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="39" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="39" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:46" x14ac:dyDescent="0.3">
@@ -870,115 +870,115 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="D3" s="2">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="E3" s="2">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="F3" s="2">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="G3" s="2">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="H3" s="2">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="I3" s="2">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="J3" s="2">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="K3" s="2">
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="L3" s="2">
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="M3" s="2">
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="N3" s="2">
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="O3" s="2">
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="P3" s="2">
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="Q3" s="2">
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="R3" s="2">
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="S3" s="2">
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="T3" s="2">
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="U3" s="2">
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="V3" s="2">
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="W3" s="2">
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="X3" s="2">
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="Y3" s="2">
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="Z3" s="2">
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="AA3" s="2">
-        <v>43000</v>
+        <v>4300</v>
       </c>
       <c r="AB3" s="2">
-        <v>43000</v>
+        <v>4300</v>
       </c>
       <c r="AC3" s="2">
-        <v>43000</v>
+        <v>4300</v>
       </c>
       <c r="AD3" s="2">
-        <v>43000</v>
+        <v>4300</v>
       </c>
       <c r="AE3" s="2">
-        <v>43000</v>
+        <v>4300</v>
       </c>
       <c r="AF3" s="2">
-        <v>43000</v>
+        <v>4300</v>
       </c>
       <c r="AG3" s="2">
-        <v>43000</v>
+        <v>4300</v>
       </c>
       <c r="AH3" s="2">
-        <v>43000</v>
+        <v>4300</v>
       </c>
       <c r="AI3" s="2">
-        <v>43000</v>
+        <v>4300</v>
       </c>
       <c r="AJ3" s="2">
-        <v>43000</v>
+        <v>4300</v>
       </c>
       <c r="AK3" s="2">
-        <v>51500</v>
+        <v>5150</v>
       </c>
       <c r="AL3" s="2">
-        <v>51500</v>
+        <v>5150</v>
       </c>
       <c r="AM3" s="2">
-        <v>51500</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.3">
@@ -989,115 +989,115 @@
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D4" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E4" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F4" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G4" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="H4" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I4" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="J4" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="K4" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="L4" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="M4" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="N4" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="O4" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="P4" s="2">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="Q4" s="2">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="R4" s="2">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="S4" s="2">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="T4" s="2">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="U4" s="2">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="V4" s="2">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="W4" s="2">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="X4" s="2">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="Y4" s="2">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="Z4" s="2">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="AA4" s="2">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="AB4" s="2">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="AC4" s="2">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="AD4" s="2">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="AE4" s="2">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="AF4" s="2">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="AG4" s="2">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="AH4" s="2">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="AI4" s="2">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="AJ4" s="2">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="AK4" s="2">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="AL4" s="2">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="AM4" s="2">
-        <v>6000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.3">
@@ -1108,115 +1108,115 @@
         <v>10</v>
       </c>
       <c r="C5" s="2">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="D5" s="2">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="E5" s="2">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="F5" s="2">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="G5" s="2">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="H5" s="2">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="I5" s="2">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="J5" s="2">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="K5" s="2">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="L5" s="2">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="M5" s="2">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="N5" s="2">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="O5" s="2">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="P5" s="2">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="Q5" s="2">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="R5" s="2">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="S5" s="2">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="T5" s="2">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="U5" s="2">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="V5" s="2">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="W5" s="2">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="X5" s="2">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="Y5" s="2">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="Z5" s="2">
         <v>0</v>
       </c>
       <c r="AA5" s="2">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="AB5" s="2">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="AC5" s="2">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="AD5" s="2">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="AE5" s="2">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="AF5" s="2">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="AG5" s="2">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="AH5" s="2">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="AI5" s="2">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="AJ5" s="2">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="AK5" s="2">
-        <v>8000</v>
+        <v>800</v>
       </c>
       <c r="AL5" s="2">
-        <v>8000</v>
+        <v>800</v>
       </c>
       <c r="AM5" s="2">
-        <v>8000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.3">
@@ -1227,25 +1227,25 @@
         <v>9</v>
       </c>
       <c r="C6" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="D6" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="E6" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="F6" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="G6" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="H6" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I6" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
@@ -1254,37 +1254,37 @@
         <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="M6" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="N6" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="O6" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="P6" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="Q6" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="R6" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="S6" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="T6" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="U6" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="V6" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="W6" s="2">
         <v>0</v>
@@ -1311,31 +1311,31 @@
         <v>0</v>
       </c>
       <c r="AE6" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="AF6" s="2">
         <v>0</v>
       </c>
       <c r="AG6" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AH6" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AI6" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ6" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AK6" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="AL6" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM6" s="2">
-        <v>3000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.3">
@@ -1346,34 +1346,34 @@
         <v>11</v>
       </c>
       <c r="C7" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="D7" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="E7" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="F7" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="G7" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="H7" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I7" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="J7" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
@@ -1385,28 +1385,28 @@
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="Q7" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="R7" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="S7" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="T7" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="U7" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="V7" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="W7" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="X7" s="2">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="AF7" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="AG7" s="2">
         <v>0</v>
@@ -1442,19 +1442,19 @@
         <v>0</v>
       </c>
       <c r="AI7" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="AJ7" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="AK7" s="2">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="AL7" s="2">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="AM7" s="2">
-        <v>2500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.3">
@@ -1466,23 +1466,23 @@
       </c>
       <c r="C8" s="2">
         <f>SUM(C3:C4)-SUM(C5:C7)-SUM(C9:C14)</f>
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ref="D8:AM8" si="0">SUM(D3:D4)-SUM(D5:D7)-SUM(D9:D14)</f>
+        <f>SUM(D3:D4)-SUM(D5:D7)-SUM(D9:D14)</f>
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>1000</v>
+        <f>SUM(E3:E4)-SUM(E5:E7)-SUM(E9:E14)</f>
+        <v>100</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D8:AM8" si="0">SUM(F3:F4)-SUM(F5:F7)-SUM(F9:F14)</f>
         <v>0</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>-1000</v>
+        <v>-100</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
@@ -1498,43 +1498,43 @@
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>-1500</v>
+        <v>-150</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>-1000</v>
+        <v>-100</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="0"/>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="V8" s="2">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
@@ -1550,23 +1550,23 @@
       </c>
       <c r="X8" s="2">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="0"/>
-        <v>-2000</v>
+        <v>-200</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="0"/>
-        <v>-1500</v>
+        <v>-150</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="0"/>
-        <v>-1500</v>
+        <v>-150</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="0"/>
@@ -1574,43 +1574,43 @@
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="AE8" s="2">
         <f t="shared" si="0"/>
-        <v>-1500</v>
+        <v>-150</v>
       </c>
       <c r="AF8" s="2">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="AG8" s="2">
         <f t="shared" si="0"/>
-        <v>-1500</v>
+        <v>-150</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" si="0"/>
-        <v>-2000</v>
+        <v>-200</v>
       </c>
       <c r="AI8" s="2">
         <f t="shared" si="0"/>
-        <v>-2500</v>
+        <v>-250</v>
       </c>
       <c r="AJ8" s="2">
         <f t="shared" si="0"/>
-        <v>-500</v>
+        <v>-50</v>
       </c>
       <c r="AK8" s="2">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="AL8" s="2">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="AM8" s="2">
         <f t="shared" si="0"/>
-        <v>-500</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.3">
@@ -1621,115 +1621,115 @@
         <v>13</v>
       </c>
       <c r="C9" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="D9" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="E9" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="F9" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="G9" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="H9" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="I9" s="2">
-        <v>12000</v>
+        <v>1200</v>
       </c>
       <c r="J9" s="2">
-        <v>12000</v>
+        <v>1200</v>
       </c>
       <c r="K9" s="2">
-        <v>12000</v>
+        <v>1200</v>
       </c>
       <c r="L9" s="2">
-        <v>12000</v>
+        <v>1200</v>
       </c>
       <c r="M9" s="2">
-        <v>12000</v>
+        <v>1200</v>
       </c>
       <c r="N9" s="2">
-        <v>12000</v>
+        <v>1200</v>
       </c>
       <c r="O9" s="2">
-        <v>12000</v>
+        <v>1200</v>
       </c>
       <c r="P9" s="2">
-        <v>12000</v>
+        <v>1200</v>
       </c>
       <c r="Q9" s="2">
-        <v>12000</v>
+        <v>1200</v>
       </c>
       <c r="R9" s="2">
-        <v>12000</v>
+        <v>1200</v>
       </c>
       <c r="S9" s="2">
-        <v>12000</v>
+        <v>1200</v>
       </c>
       <c r="T9" s="2">
-        <v>12000</v>
+        <v>1200</v>
       </c>
       <c r="U9" s="2">
-        <v>12000</v>
+        <v>1200</v>
       </c>
       <c r="V9" s="2">
-        <v>12000</v>
+        <v>1200</v>
       </c>
       <c r="W9" s="2">
-        <v>12000</v>
+        <v>1200</v>
       </c>
       <c r="X9" s="2">
-        <v>12000</v>
+        <v>1200</v>
       </c>
       <c r="Y9" s="2">
-        <v>15000</v>
+        <v>1500</v>
       </c>
       <c r="Z9" s="2">
-        <v>15000</v>
+        <v>1500</v>
       </c>
       <c r="AA9" s="2">
-        <v>15000</v>
+        <v>1500</v>
       </c>
       <c r="AB9" s="2">
-        <v>15000</v>
+        <v>1500</v>
       </c>
       <c r="AC9" s="2">
-        <v>15000</v>
+        <v>1500</v>
       </c>
       <c r="AD9" s="2">
-        <v>15000</v>
+        <v>1500</v>
       </c>
       <c r="AE9" s="2">
-        <v>15000</v>
+        <v>1500</v>
       </c>
       <c r="AF9" s="2">
-        <v>15000</v>
+        <v>1500</v>
       </c>
       <c r="AG9" s="2">
-        <v>15000</v>
+        <v>1500</v>
       </c>
       <c r="AH9" s="2">
-        <v>15000</v>
+        <v>1500</v>
       </c>
       <c r="AI9" s="2">
-        <v>15000</v>
+        <v>1500</v>
       </c>
       <c r="AJ9" s="2">
-        <v>15000</v>
+        <v>1500</v>
       </c>
       <c r="AK9" s="2">
-        <v>15000</v>
+        <v>1500</v>
       </c>
       <c r="AL9" s="2">
-        <v>15000</v>
+        <v>1500</v>
       </c>
       <c r="AM9" s="2">
-        <v>16000</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.3">
@@ -1740,115 +1740,115 @@
         <v>15</v>
       </c>
       <c r="C10" s="2">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="D10" s="2">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="E10" s="2">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="F10" s="2">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="G10" s="2">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="H10" s="2">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="I10" s="2">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="J10" s="2">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="K10" s="2">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="L10" s="2">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="M10" s="2">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="N10" s="2">
-        <v>8000</v>
+        <v>800</v>
       </c>
       <c r="O10" s="2">
-        <v>8000</v>
+        <v>800</v>
       </c>
       <c r="P10" s="2">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="Q10" s="2">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="R10" s="2">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="S10" s="2">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="T10" s="2">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="U10" s="2">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="V10" s="2">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="W10" s="2">
-        <v>8000</v>
+        <v>800</v>
       </c>
       <c r="X10" s="2">
-        <v>8000</v>
+        <v>800</v>
       </c>
       <c r="Y10" s="2">
-        <v>8000</v>
+        <v>800</v>
       </c>
       <c r="Z10" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="AA10" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="AB10" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="AC10" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="AD10" s="2">
-        <v>8000</v>
+        <v>800</v>
       </c>
       <c r="AE10" s="2">
-        <v>8000</v>
+        <v>800</v>
       </c>
       <c r="AF10" s="2">
-        <v>8000</v>
+        <v>800</v>
       </c>
       <c r="AG10" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="AH10" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="AI10" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" s="2">
-        <v>8000</v>
+        <v>800</v>
       </c>
       <c r="AK10" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="AL10" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="AM10" s="2">
-        <v>9000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.3">
@@ -1859,115 +1859,115 @@
         <v>6</v>
       </c>
       <c r="C11" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D11" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E11" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F11" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G11" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="H11" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I11" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="J11" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="K11" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="L11" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="M11" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="N11" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="O11" s="2">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="P11" s="2">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="Q11" s="2">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="R11" s="2">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="S11" s="2">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="T11" s="2">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="U11" s="2">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="V11" s="2">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="W11" s="2">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="X11" s="2">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="Y11" s="2">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="Z11" s="2">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="AA11" s="2">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="AB11" s="2">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="AC11" s="2">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="AD11" s="2">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="AE11" s="2">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="AF11" s="2">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="AG11" s="2">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="AH11" s="2">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="AI11" s="2">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="AJ11" s="2">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="AK11" s="2">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="AL11" s="2">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="AM11" s="2">
-        <v>3000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.3">
@@ -1978,115 +1978,115 @@
         <v>12</v>
       </c>
       <c r="C12" s="2">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="D12" s="2">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="E12" s="2">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="F12" s="2">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G12" s="2">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="H12" s="2">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="I12" s="2">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="J12" s="2">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="K12" s="2">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="L12" s="2">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="M12" s="2">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="N12" s="2">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="O12" s="2">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="P12" s="2">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="Q12" s="2">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="R12" s="2">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="S12" s="2">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="T12" s="2">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="U12" s="2">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="V12" s="2">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="W12" s="2">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="X12" s="2">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="Y12" s="2">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="Z12" s="2">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="AA12" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="AB12" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="AC12" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="AD12" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="AE12" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="AF12" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="AG12" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="AH12" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="AI12" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="AK12" s="2">
-        <v>12000</v>
+        <v>1200</v>
       </c>
       <c r="AL12" s="2">
-        <v>12000</v>
+        <v>1200</v>
       </c>
       <c r="AM12" s="2">
-        <v>12000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.3">
@@ -2097,40 +2097,40 @@
         <v>8</v>
       </c>
       <c r="C13" s="2">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="E13" s="2">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F13" s="2">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="G13" s="2">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="H13" s="2">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="I13" s="2">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="J13" s="2">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="K13" s="2">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="L13" s="2">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="M13" s="2">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="N13" s="2">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
@@ -2142,70 +2142,70 @@
         <v>0</v>
       </c>
       <c r="R13" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="S13" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="T13" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="U13" s="2">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="V13" s="2">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="W13" s="2">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="X13" s="2">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="Y13" s="2">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="Z13" s="2">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="AA13" s="2">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="AB13" s="2">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="AC13" s="2">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="AD13" s="2">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="AE13" s="2">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="AF13" s="2">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="AG13" s="2">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="AH13" s="2">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="AI13" s="2">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="AJ13" s="2">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="AK13" s="2">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="AL13" s="2">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="AM13" s="2">
-        <v>1500</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.3">
@@ -2216,40 +2216,40 @@
         <v>4</v>
       </c>
       <c r="C14" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D14" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E14" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F14" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G14" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="H14" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I14" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="J14" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="K14" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="L14" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="M14" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="N14" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
@@ -2267,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
@@ -2279,52 +2279,52 @@
         <v>0</v>
       </c>
       <c r="X14" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="Y14" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="Z14" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="AA14" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="AB14" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="AC14" s="2">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="AD14" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="AE14" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="AF14" s="2">
         <v>0</v>
       </c>
       <c r="AG14" s="2">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="AH14" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="AI14" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="AJ14" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="AK14" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="AL14" s="2">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="AM14" s="2">
-        <v>3000</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
